--- a/biology/Biologie cellulaire et moléculaire/Liste_de_types_cellulaires_distincts_dans_le_corps_humain/Liste_de_types_cellulaires_distincts_dans_le_corps_humain.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_de_types_cellulaires_distincts_dans_le_corps_humain/Liste_de_types_cellulaires_distincts_dans_le_corps_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a environ 200 types cellulaires différents dans un corps humain[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a environ 200 types cellulaires différents dans un corps humain.
 Les cellules font partie d'un système appelé tissu. Un ensemble de tissus forme des organes. Ces organes forment un système (ex: système digestif), les systèmes dans leur ensemble forment un organisme. 
 Les types cellulaires peuvent être classés par leur tissu d'origine; cependant le devenir de cellule peut évoluer dans le temps ou en fonction de l'environnement de la cellule.
 </t>
@@ -513,7 +525,9 @@
           <t>Liste non exhaustive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Myoblastes
 Cellules épithéliales
@@ -552,7 +566,9 @@
           <t>Cellules claires (calcitronine)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cellules à T3, T4</t>
         </is>
@@ -582,7 +598,9 @@
           <t>Cellules conjonctives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cellules résidentes
 Fibroblastes
@@ -621,7 +639,9 @@
           <t>Cellules graisseuses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cellules mésenchymateuses
 Lipoblastes
@@ -654,7 +674,9 @@
           <t>Cellules particulières intégrées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cellules neuroépithéliales
 Cellules myoépithéliales
@@ -686,7 +708,9 @@
           <t>Cellules migratrices</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">▪Lymphocytes
 ▪Histiocytes
@@ -719,7 +743,9 @@
           <t>Cellules rénales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Podocytes (cellules formant en partie la membrane filtrante du rein) ;
 Cellules tubulaires (distale, proximale, de la Hanse de Henle).</t>
@@ -750,7 +776,9 @@
           <t>Cellules musculaires</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Léiomyocytes = Cellules musculaires lisses
 Cardiomyocytes = Cellules musculaires striées cardiaques
@@ -783,7 +811,9 @@
           <t>Cellules osseuses</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cellules mésenchymateuses ostéoprogénitrices
 Ostéoclastes
@@ -816,7 +846,9 @@
           <t>Cellules cartilagineuses</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Chondroblastes
 Chondrocytes
@@ -852,7 +884,9 @@
           <t>Cellules gastriques</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Cellules principales de l'estomac (pepsine)
 Cellules pariétales de l'estomac (= oxyntiques)
@@ -884,7 +918,9 @@
           <t>Cellules sexuelles</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Cellules germinales primordiales
 Spermatozoïdes
@@ -926,7 +962,9 @@
           <t>Cellules pulmonaires</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Pneumocytes 1
 Pneumocytes 2
@@ -958,7 +996,9 @@
           <t>Cellules pancréatiques</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Ilots de Langherans (pancréas endocrine)
 Cellules alpha (glucagon)
@@ -991,9 +1031,11 @@
           <t>Cellules du foie = hépatiques</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hépatocytes[4]
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hépatocytes
 Cellules de Kupffer (= macrophages du foie)</t>
         </is>
       </c>
@@ -1023,6 +1065,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1048,7 +1092,9 @@
           <t>Cellules nerveuses</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Neurones
 pyramidaux
@@ -1099,7 +1145,9 @@
           <t>Cellules Sanguines = éléments figurés</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Lignée rouge
 Proérythroblastes
